--- a/public/DataJadwal/Jadwal.xlsx
+++ b/public/DataJadwal/Jadwal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>acara dosen</t>
   </si>
@@ -32,19 +32,13 @@
     <t>2023-04-11 18:39:00</t>
   </si>
   <si>
-    <t>sempro</t>
+    <t>acara dosen 1</t>
   </si>
   <si>
-    <t>2023-04-14 18:39:00</t>
+    <t>2023-06-12 18:39:00</t>
   </si>
   <si>
-    <t>2023-04-15 18:39:00</t>
-  </si>
-  <si>
-    <t>seminar</t>
-  </si>
-  <si>
-    <t>2023-04-19 18:39:00</t>
+    <t>2023-06-11 18:39:00</t>
   </si>
 </sst>
 </file>
@@ -364,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:L3"/>
+  <dimension ref="F1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="6:12" x14ac:dyDescent="0.3">
@@ -411,24 +405,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2">
         <v>1</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
